--- a/JAVA 20 - Quyen Phan - Database Design.xlsx
+++ b/JAVA 20 - Quyen Phan - Database Design.xlsx
@@ -3,16 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4E609E9-8C59-4644-B9C2-12FA650ABD5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03660E20-0CBF-4EBC-80D1-A05343538525}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1965" windowWidth="28800" windowHeight="15435" tabRatio="422" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1965" windowWidth="28800" windowHeight="15435" tabRatio="422" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="B1. Mô hình quan niệm (2)" sheetId="5" r:id="rId1"/>
-    <sheet name="B1. Mô hình quan niệm" sheetId="1" r:id="rId2"/>
-    <sheet name="B2. Mô hình logic" sheetId="2" r:id="rId3"/>
-    <sheet name="B3. Mô hình quan hệ" sheetId="3" r:id="rId4"/>
-    <sheet name="4. Cơ sở dữ liệu vật lý" sheetId="4" r:id="rId5"/>
+    <sheet name="B1. Mô hình quan niệm" sheetId="1" r:id="rId1"/>
+    <sheet name="B2. Mô hình logic" sheetId="2" r:id="rId2"/>
+    <sheet name="B3. Mô hình quan hệ" sheetId="3" r:id="rId3"/>
+    <sheet name="4. Cơ sở dữ liệu vật lý" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,6 +23,25 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={E7211162-DE0E-410A-8C7F-49B919CB587A}</author>
+  </authors>
+  <commentList>
+    <comment ref="F9" authorId="0" shapeId="0" xr:uid="{E7211162-DE0E-410A-8C7F-49B919CB587A}">
+      <text>
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Nhân viên phụ trách cho tình trạng đơn hàng
+</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Author</author>
@@ -105,7 +123,7 @@
 </comments>
 </file>
 
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Author</author>
@@ -188,7 +206,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="116">
   <si>
     <t>Xác định các đối tượng cần lưu trữ
 Xác định các thuộc tính, thông tin của từng đối tượng</t>
@@ -212,33 +230,21 @@
     <t>Cơ sở dữ liệu</t>
   </si>
   <si>
-    <t>KDL --&gt; single type, đơn --&gt; số nguyên, thực chuỗi</t>
-  </si>
-  <si>
     <t>Không hỗ trợ KDL đối tượng</t>
   </si>
   <si>
     <t>Không hỗ trợ KDL danh sách</t>
   </si>
   <si>
-    <t>PROVIDER</t>
-  </si>
-  <si>
     <t>Đối tượng</t>
   </si>
   <si>
     <t>Danh sách</t>
   </si>
   <si>
-    <t>TITLE</t>
-  </si>
-  <si>
     <t>Không có khái niệm thừa kế, nếu 2 hoặc nhiều bảng trùng các thuộc tính, vẫn để thuộc tính ở các bảng khác nhau</t>
   </si>
   <si>
-    <t>Inheritance &amp; Composition</t>
-  </si>
-  <si>
     <t>ORDER</t>
   </si>
   <si>
@@ -246,15 +252,6 @@
   </si>
   <si>
     <t>BILL</t>
-  </si>
-  <si>
-    <t>DELIVERY_STATUS</t>
-  </si>
-  <si>
-    <t>DEPARTMENT</t>
-  </si>
-  <si>
-    <t>CRON JOB</t>
   </si>
   <si>
     <t>1. Xác định lại các tập thực thể</t>
@@ -596,78 +593,147 @@
     </r>
   </si>
   <si>
-    <t>Table A</t>
-  </si>
-  <si>
-    <t>Table B</t>
-  </si>
-  <si>
-    <t>Table C</t>
-  </si>
-  <si>
-    <t>field 1</t>
-  </si>
-  <si>
-    <t>field 2</t>
-  </si>
-  <si>
-    <t>field 3</t>
-  </si>
-  <si>
-    <t>field 4</t>
-  </si>
-  <si>
-    <t>field 5</t>
-  </si>
-  <si>
-    <t>..</t>
-  </si>
-  <si>
-    <t>Field 1</t>
-  </si>
-  <si>
-    <t>Field 2</t>
-  </si>
-  <si>
-    <t>Field 3</t>
-  </si>
-  <si>
-    <t>Field 4</t>
-  </si>
-  <si>
-    <t>Field 5</t>
-  </si>
-  <si>
     <t>B2. Mô hình logic 
 ERD</t>
   </si>
   <si>
-    <t>Object 1</t>
-  </si>
-  <si>
-    <t>Att 1</t>
-  </si>
-  <si>
-    <t>Att 2</t>
-  </si>
-  <si>
-    <t>Att 3</t>
-  </si>
-  <si>
-    <t>Object 2</t>
-  </si>
-  <si>
-    <t>Object 3</t>
-  </si>
-  <si>
-    <t>Object 4</t>
+    <t>16. Build shopping database.pdf</t>
+  </si>
+  <si>
+    <t>ITEM</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>NAME</t>
+  </si>
+  <si>
+    <t>CUSTOMER</t>
+  </si>
+  <si>
+    <t>EMAIL</t>
+  </si>
+  <si>
+    <t>ADDRESS</t>
+  </si>
+  <si>
+    <t>PHONE</t>
+  </si>
+  <si>
+    <t>ACCOUNT</t>
+  </si>
+  <si>
+    <t>SIZE</t>
+  </si>
+  <si>
+    <t>MATERIAL</t>
+  </si>
+  <si>
+    <t>COLOR</t>
+  </si>
+  <si>
+    <t>CUSTOMER_NAME</t>
+  </si>
+  <si>
+    <t>CUSTOMER_ADDRESS</t>
+  </si>
+  <si>
+    <t>CUSTOMER_PHONE</t>
+  </si>
+  <si>
+    <t>ITEM_ID</t>
+  </si>
+  <si>
+    <t>AMOUNT</t>
+  </si>
+  <si>
+    <t>ITEM_COLOR</t>
+  </si>
+  <si>
+    <t>PRICE</t>
+  </si>
+  <si>
+    <t>DELIVERY_FEE</t>
+  </si>
+  <si>
+    <t>CREATED_AT</t>
+  </si>
+  <si>
+    <t>KDL --&gt; single type, đơn --&gt; số nguyên, thực chuỗi, ngày tháng năm</t>
+  </si>
+  <si>
+    <t>SIZE(s)</t>
+  </si>
+  <si>
+    <t>COLOR(s)</t>
+  </si>
+  <si>
+    <t>ITEM_ID(s)</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>ORDER_STATUS</t>
+  </si>
+  <si>
+    <t>DESCRIPTION</t>
+  </si>
+  <si>
+    <t>EMPLOYEE</t>
+  </si>
+  <si>
+    <t>DELIVERY_EMPLOYEE</t>
+  </si>
+  <si>
+    <t>DESC</t>
+  </si>
+  <si>
+    <t>Đang giao</t>
+  </si>
+  <si>
+    <t>Đã nhận</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Đóng gói</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>ITEM(s)</t>
+  </si>
+  <si>
+    <t>TOTAL_OF_MONEY</t>
+  </si>
+  <si>
+    <t>ITEM_DETAIL</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>TITLE ?</t>
+  </si>
+  <si>
+    <t>DEPARTMENT ?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -738,8 +804,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="18"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -760,13 +832,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -798,7 +876,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -815,14 +893,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="16" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -865,6 +937,21 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -937,6 +1024,10 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1200,12 +1291,21 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="F9" dT="2023-11-03T14:47:00.60" personId="{00000000-0000-0000-0000-000000000000}" id="{E7211162-DE0E-410A-8C7F-49B919CB587A}">
+    <text xml:space="preserve">Nhân viên phụ trách cho tình trạng đơn hàng
+</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F2EE39A-42C2-4199-9C19-40FCCF443789}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:L51"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.25" x14ac:dyDescent="0.25"/>
@@ -1213,169 +1313,238 @@
     <col min="1" max="1" width="22.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="30.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="24.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="24.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="41.85546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="31.140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="22.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="28.5703125" style="1" customWidth="1"/>
-    <col min="8" max="11" width="22.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="41.42578125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="31" style="1" customWidth="1"/>
+    <col min="8" max="8" width="26.5703125" style="1" customWidth="1"/>
+    <col min="9" max="11" width="22.7109375" style="1" customWidth="1"/>
     <col min="12" max="12" width="30.5703125" style="1" customWidth="1"/>
     <col min="13" max="101" width="22.7109375" style="1" customWidth="1"/>
     <col min="102" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
+    <row r="1" spans="2:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="G2" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
     </row>
     <row r="3" spans="2:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
       <c r="E3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="J3" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="K3" s="1">
+        <v>5</v>
+      </c>
+      <c r="L3" s="1">
+        <v>100</v>
+      </c>
     </row>
     <row r="4" spans="2:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
       <c r="E4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>3</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="K4" s="1">
+        <v>10</v>
+      </c>
+      <c r="L4" s="1">
+        <v>200</v>
       </c>
     </row>
     <row r="5" spans="2:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="2:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="D6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>16</v>
-      </c>
       <c r="F6" s="2" t="s">
-        <v>18</v>
+        <v>99</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="H6" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="I6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I6" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="J6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>17</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
     </row>
     <row r="7" spans="2:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
+        <v>84</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>87</v>
+      </c>
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
     </row>
     <row r="8" spans="2:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>82</v>
+        <v>77</v>
+      </c>
+      <c r="C8" s="28" t="s">
+        <v>94</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
+        <v>86</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="G8" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>81</v>
+      </c>
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
     </row>
     <row r="9" spans="2:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
+        <v>78</v>
+      </c>
+      <c r="C9" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F9" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>113</v>
+      </c>
       <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
+      <c r="J9" s="3" t="s">
+        <v>88</v>
+      </c>
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
     </row>
     <row r="10" spans="2:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="3"/>
+      <c r="B10" s="3" t="s">
+        <v>79</v>
+      </c>
       <c r="C10" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
+        <v>82</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>79</v>
+      </c>
       <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
+      <c r="G10" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="H10" s="27" t="s">
+        <v>114</v>
+      </c>
       <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
+      <c r="J10" s="3" t="s">
+        <v>83</v>
+      </c>
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
     </row>
     <row r="11" spans="2:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="3"/>
-      <c r="C11" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="D11" s="3"/>
+      <c r="B11" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="C11" s="28" t="s">
+        <v>95</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>88</v>
+      </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
+      <c r="G11" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="H11" s="27" t="s">
+        <v>115</v>
+      </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
@@ -1384,7 +1553,9 @@
     <row r="12" spans="2:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
+      <c r="D12" s="3" t="s">
+        <v>89</v>
+      </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
@@ -1397,7 +1568,9 @@
     <row r="13" spans="2:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
+      <c r="D13" s="3" t="s">
+        <v>90</v>
+      </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
@@ -1410,7 +1583,9 @@
     <row r="14" spans="2:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
+      <c r="D14" s="3" t="s">
+        <v>91</v>
+      </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
@@ -1423,7 +1598,9 @@
     <row r="15" spans="2:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
+      <c r="D15" s="3" t="s">
+        <v>92</v>
+      </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
@@ -1436,7 +1613,9 @@
     <row r="16" spans="2:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
+      <c r="D16" s="27" t="s">
+        <v>13</v>
+      </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
@@ -1490,37 +1669,84 @@
       <c r="B21" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E21" s="6" t="s">
-        <v>11</v>
+      <c r="E21" s="29" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="22" spans="2:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="4" t="s">
-        <v>7</v>
+        <v>93</v>
       </c>
       <c r="C22" s="5"/>
-      <c r="E22" s="7" t="s">
-        <v>12</v>
+      <c r="E22" s="28" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="2:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C23" s="5"/>
+      <c r="I23" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="K23" s="27" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="24" spans="2:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="I24" s="1">
+        <v>1</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="25" spans="2:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="26" spans="2:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="27" spans="2:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
+        <v>11</v>
+      </c>
+      <c r="I25" s="1">
+        <v>2</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I26" s="1">
+        <v>3</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="27" spans="2:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I27" s="1">
+        <v>1</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
     <row r="28" spans="2:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="29" spans="2:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="30" spans="2:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1546,350 +1772,21 @@
     <row r="50" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="51" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="B2:D4"/>
+    <mergeCell ref="G2:I2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:L51"/>
-  <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:D4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="23.25" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="22.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="30.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="24.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="24.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="31.140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="22.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="28.5703125" style="1" customWidth="1"/>
-    <col min="8" max="11" width="22.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="30.5703125" style="1" customWidth="1"/>
-    <col min="13" max="101" width="22.7109375" style="1" customWidth="1"/>
-    <col min="102" max="16384" width="9.140625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-    </row>
-    <row r="3" spans="2:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="2:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="2:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="2:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-    </row>
-    <row r="7" spans="2:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-    </row>
-    <row r="8" spans="2:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="2:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="2:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="3"/>
-      <c r="C10" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="2:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="3"/>
-      <c r="C11" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="2:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="2:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-    </row>
-    <row r="14" spans="2:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-    </row>
-    <row r="15" spans="2:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="2:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="2:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="2:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="2:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="2:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="21" spans="2:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="22" spans="2:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C22" s="5"/>
-      <c r="E22" s="7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="23" spans="2:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C23" s="5"/>
-    </row>
-    <row r="24" spans="2:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25" spans="2:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="26" spans="2:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="27" spans="2:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" spans="2:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="2:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="2:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="2:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="2:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="33" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="34" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="36" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="37" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="38" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="39" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="40" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="41" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="42" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="43" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="44" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="45" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="46" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="47" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="48" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="49" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="50" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="51" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B2:D4"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:S51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
@@ -1910,16 +1807,16 @@
   <sheetData>
     <row r="1" spans="2:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
     </row>
     <row r="3" spans="2:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
       <c r="E3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1928,9 +1825,9 @@
       </c>
     </row>
     <row r="4" spans="2:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
       <c r="E4" s="1" t="s">
         <v>2</v>
       </c>
@@ -1938,61 +1835,61 @@
         <v>3</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="2:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I5" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="J5" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="K5" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="L5" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="M5" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q5" s="11"/>
-      <c r="R5" s="12"/>
-      <c r="S5" s="13"/>
+      <c r="Q5" s="9"/>
+      <c r="R5" s="10"/>
+      <c r="S5" s="11"/>
     </row>
     <row r="6" spans="2:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="2"/>
@@ -2035,7 +1932,7 @@
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
-      <c r="Q8" s="11"/>
+      <c r="Q8" s="9"/>
     </row>
     <row r="9" spans="2:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="3"/>
@@ -2062,8 +1959,8 @@
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
-      <c r="Q10" s="11"/>
-      <c r="R10" s="12"/>
+      <c r="Q10" s="9"/>
+      <c r="R10" s="10"/>
     </row>
     <row r="11" spans="2:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="3"/>
@@ -2104,7 +2001,7 @@
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
-      <c r="Q13" s="14"/>
+      <c r="Q13" s="12"/>
     </row>
     <row r="14" spans="2:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="3"/>
@@ -2119,8 +2016,8 @@
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
-      <c r="Q14" s="11"/>
-      <c r="R14" s="12"/>
+      <c r="Q14" s="9"/>
+      <c r="R14" s="10"/>
     </row>
     <row r="15" spans="2:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="3"/>
@@ -2135,8 +2032,8 @@
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
-      <c r="Q15" s="11"/>
-      <c r="R15" s="12"/>
+      <c r="Q15" s="9"/>
+      <c r="R15" s="10"/>
     </row>
     <row r="16" spans="2:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="3"/>
@@ -2150,8 +2047,8 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-      <c r="Q16" s="11"/>
-      <c r="R16" s="12"/>
+      <c r="Q16" s="9"/>
+      <c r="R16" s="10"/>
     </row>
     <row r="17" spans="1:18" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="3"/>
@@ -2166,8 +2063,8 @@
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
       <c r="M17" s="3"/>
-      <c r="Q17" s="11"/>
-      <c r="R17" s="12"/>
+      <c r="Q17" s="9"/>
+      <c r="R17" s="10"/>
     </row>
     <row r="18" spans="1:18" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="3"/>
@@ -2199,88 +2096,88 @@
     </row>
     <row r="20" spans="1:18" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="21" spans="1:18" ht="27.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="B21" s="8" t="s">
+      <c r="A21" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="15"/>
-      <c r="I21" s="15"/>
-      <c r="J21" s="15"/>
+      <c r="B21" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="13"/>
     </row>
     <row r="22" spans="1:18" ht="27.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="25"/>
-      <c r="B22" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="15"/>
-      <c r="I22" s="15"/>
-      <c r="J22" s="15"/>
+      <c r="A22" s="23"/>
+      <c r="B22" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="13"/>
     </row>
     <row r="23" spans="1:18" ht="27.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="8"/>
-      <c r="C23" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="15"/>
-      <c r="I23" s="15"/>
-      <c r="J23" s="15"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="13"/>
     </row>
     <row r="24" spans="1:18" ht="27.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="26" t="s">
-        <v>92</v>
-      </c>
-      <c r="B24" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="15"/>
-      <c r="I24" s="15"/>
-      <c r="J24" s="15"/>
+      <c r="A24" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="13"/>
     </row>
     <row r="25" spans="1:18" ht="27.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="27"/>
-      <c r="B25" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="H25" s="8"/>
+      <c r="A25" s="25"/>
+      <c r="B25" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H25" s="6"/>
     </row>
     <row r="26" spans="1:18" ht="27.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="8"/>
-      <c r="C26" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
     </row>
     <row r="27" spans="1:18" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="28" spans="1:18" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2320,7 +2217,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:W51"/>
   <sheetViews>
@@ -2348,18 +2245,18 @@
   <sheetData>
     <row r="1" spans="2:23" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:23" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
     </row>
     <row r="3" spans="2:23" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
       <c r="G3" s="1" t="s">
@@ -2370,9 +2267,9 @@
       </c>
     </row>
     <row r="4" spans="2:23" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="23"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
       <c r="G4" s="1" t="s">
@@ -2382,99 +2279,99 @@
         <v>3</v>
       </c>
       <c r="K4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="W4" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="2:23" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="N4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="W4" s="1" t="s">
+      <c r="D5" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" s="19" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="5" spans="2:23" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="21" t="s">
+      <c r="H5" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="I5" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="J5" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="D5" s="21" t="s">
+      <c r="K5" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="E5" s="21" t="s">
+      <c r="L5" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="F5" s="21" t="s">
+      <c r="M5" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="G5" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="H5" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="J5" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="K5" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="L5" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="M5" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="N5" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="O5" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="P5" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q5" s="21" t="s">
-        <v>58</v>
+      <c r="N5" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="O5" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="P5" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q5" s="19" t="s">
+        <v>51</v>
       </c>
       <c r="S5" s="1">
         <v>1</v>
       </c>
       <c r="T5" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="U5" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="V5" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="W5" s="13" t="s">
-        <v>35</v>
+        <v>24</v>
+      </c>
+      <c r="U5" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="V5" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="W5" s="11" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="2:23" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="20"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
       <c r="F6" s="2"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="20"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
@@ -2518,7 +2415,7 @@
       <c r="O8" s="3"/>
       <c r="P8" s="3"/>
       <c r="Q8" s="3"/>
-      <c r="U8" s="11"/>
+      <c r="U8" s="9"/>
     </row>
     <row r="9" spans="2:23" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="3"/>
@@ -2555,8 +2452,8 @@
       <c r="O10" s="3"/>
       <c r="P10" s="3"/>
       <c r="Q10" s="3"/>
-      <c r="U10" s="11"/>
-      <c r="V10" s="12"/>
+      <c r="U10" s="9"/>
+      <c r="V10" s="10"/>
     </row>
     <row r="11" spans="2:23" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="3"/>
@@ -2610,7 +2507,7 @@
       <c r="O13" s="3"/>
       <c r="P13" s="3"/>
       <c r="Q13" s="3"/>
-      <c r="U13" s="14"/>
+      <c r="U13" s="12"/>
     </row>
     <row r="14" spans="2:23" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="3"/>
@@ -2629,8 +2526,8 @@
       <c r="O14" s="3"/>
       <c r="P14" s="3"/>
       <c r="Q14" s="3"/>
-      <c r="U14" s="11"/>
-      <c r="V14" s="12"/>
+      <c r="U14" s="9"/>
+      <c r="V14" s="10"/>
     </row>
     <row r="15" spans="2:23" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="3"/>
@@ -2649,8 +2546,8 @@
       <c r="O15" s="3"/>
       <c r="P15" s="3"/>
       <c r="Q15" s="3"/>
-      <c r="U15" s="11"/>
-      <c r="V15" s="12"/>
+      <c r="U15" s="9"/>
+      <c r="V15" s="10"/>
     </row>
     <row r="16" spans="2:23" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="3"/>
@@ -2668,8 +2565,8 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-      <c r="U16" s="11"/>
-      <c r="V16" s="12"/>
+      <c r="U16" s="9"/>
+      <c r="V16" s="10"/>
     </row>
     <row r="17" spans="1:22" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="3"/>
@@ -2688,8 +2585,8 @@
       <c r="O17" s="3"/>
       <c r="P17" s="3"/>
       <c r="Q17" s="3"/>
-      <c r="U17" s="11"/>
-      <c r="V17" s="12"/>
+      <c r="U17" s="9"/>
+      <c r="V17" s="10"/>
     </row>
     <row r="18" spans="1:22" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="3"/>
@@ -2729,96 +2626,96 @@
     </row>
     <row r="20" spans="1:22" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="21" spans="1:22" ht="27.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="16"/>
-      <c r="B21" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="C21" s="22"/>
-      <c r="D21" s="22"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="8"/>
-      <c r="K21" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="L21" s="15"/>
-      <c r="M21" s="15"/>
-      <c r="N21" s="15"/>
+      <c r="A21" s="14"/>
+      <c r="B21" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" s="20"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="L21" s="13"/>
+      <c r="M21" s="13"/>
+      <c r="N21" s="13"/>
     </row>
     <row r="22" spans="1:22" ht="27.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="16"/>
-      <c r="B22" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="C22" s="22"/>
-      <c r="D22" s="22"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="L22" s="15"/>
-      <c r="M22" s="15"/>
-      <c r="N22" s="15"/>
+      <c r="A22" s="14"/>
+      <c r="B22" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" s="20"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="L22" s="13"/>
+      <c r="M22" s="13"/>
+      <c r="N22" s="13"/>
     </row>
     <row r="23" spans="1:22" ht="27.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="C23" s="22"/>
-      <c r="D23" s="22"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="8"/>
-      <c r="K23" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="L23" s="15"/>
-      <c r="M23" s="15"/>
-      <c r="N23" s="15"/>
+      <c r="B23" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23" s="20"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="L23" s="13"/>
+      <c r="M23" s="13"/>
+      <c r="N23" s="13"/>
     </row>
     <row r="24" spans="1:22" ht="27.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="C24" s="22"/>
-      <c r="D24" s="22"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="8"/>
-      <c r="J24" s="8"/>
-      <c r="K24" s="10"/>
-      <c r="L24" s="15"/>
-      <c r="M24" s="15"/>
-      <c r="N24" s="15"/>
+      <c r="B24" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="C24" s="20"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="13"/>
+      <c r="M24" s="13"/>
+      <c r="N24" s="13"/>
     </row>
     <row r="25" spans="1:22" ht="27.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="8"/>
-      <c r="J25" s="8"/>
-      <c r="K25" s="8"/>
-      <c r="L25" s="8"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="6"/>
+      <c r="L25" s="6"/>
     </row>
     <row r="26" spans="1:22" ht="27.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="L26" s="8"/>
+      <c r="L26" s="6"/>
     </row>
     <row r="27" spans="1:22" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="28" spans="1:22" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2855,115 +2752,115 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:A45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.25" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="255.5703125" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="255.5703125" style="5" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>59</v>
+      <c r="A1" s="5" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>60</v>
+      <c r="A2" s="5" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>76</v>
+      <c r="A4" s="5" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>62</v>
+      <c r="A5" s="5" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>61</v>
+      <c r="A6" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
         <v>63</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="14" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>77</v>
+      <c r="A14" s="5" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
         <v>68</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2977,19 +2874,19 @@
     <row r="30" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="31" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="32" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="33" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="34" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="36" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="37" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="38" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="39" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="40" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="41" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="42" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="43" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="44" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="45" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="33" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="34" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="35" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="36" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="37" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="38" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="42" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="44" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="45" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
